--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\src\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D2B3E-6637-4245-BC6B-733AE1766971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7231FD-48FA-4511-951C-585D261B0AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="19080" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="19080" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>test</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>G52</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G18</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,12 +292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +816,7 @@
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <v>617</v>
       </c>
       <c r="C11" s="14">
@@ -833,7 +839,7 @@
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="14">
         <v>617</v>
       </c>
       <c r="C12" s="14">
@@ -876,94 +882,186 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12">
+        <v>617</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="14">
+        <v>617</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="14">
+        <v>617</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="14">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16">
+        <v>617</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="16">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20">
-        <v>617</v>
-      </c>
-      <c r="C14" s="18">
-        <v>800</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="B18" s="18">
+        <v>617</v>
+      </c>
+      <c r="C18" s="18">
+        <v>800</v>
+      </c>
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20">
-        <v>617</v>
-      </c>
-      <c r="C15" s="18">
-        <v>800</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="B19" s="18">
+        <v>617</v>
+      </c>
+      <c r="C19" s="18">
+        <v>800</v>
+      </c>
+      <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="20">
-        <v>617</v>
-      </c>
-      <c r="C16" s="18">
-        <v>800</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="B20" s="18">
+        <v>617</v>
+      </c>
+      <c r="C20" s="18">
+        <v>800</v>
+      </c>
+      <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="20">
-        <v>617</v>
-      </c>
-      <c r="C17" s="18">
-        <v>800</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="B21" s="18">
+        <v>617</v>
+      </c>
+      <c r="C21" s="18">
+        <v>800</v>
+      </c>
+      <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>2</v>
       </c>
     </row>

--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7231FD-48FA-4511-951C-585D261B0AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC21167-2DAC-4FB2-B2FF-078DC8F7CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="19080" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4335" windowWidth="19080" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>test</t>
   </si>
@@ -118,6 +118,30 @@
   </si>
   <si>
     <t>G18</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G63</t>
+  </si>
+  <si>
+    <t>G48</t>
+  </si>
+  <si>
+    <t>G51</t>
+  </si>
+  <si>
+    <t>G38</t>
   </si>
 </sst>
 </file>
@@ -133,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,43 +170,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -238,8 +232,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,45 +261,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,156 +554,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00724CD-5AEE-4E14-A7E6-D7422F85292E}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>617</v>
+      </c>
+      <c r="C2" s="2">
+        <v>800</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>617</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B3" s="12">
+        <v>617</v>
+      </c>
+      <c r="C3" s="12">
         <v>800</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="12">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>617</v>
+      </c>
+      <c r="C4" s="12">
+        <v>800</v>
+      </c>
+      <c r="D4" s="12">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>617</v>
+      </c>
+      <c r="C5" s="8">
+        <v>800</v>
+      </c>
+      <c r="D5" s="8">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
-        <v>617</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B6" s="10">
+        <v>617</v>
+      </c>
+      <c r="C6" s="10">
         <v>800</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D6" s="10">
         <v>60</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>617</v>
-      </c>
-      <c r="C4" s="4">
-        <v>800</v>
-      </c>
-      <c r="D4" s="4">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>617</v>
-      </c>
-      <c r="C5" s="6">
-        <v>800</v>
-      </c>
-      <c r="D5" s="6">
-        <v>65</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8">
-        <v>617</v>
-      </c>
-      <c r="C6" s="8">
-        <v>800</v>
-      </c>
-      <c r="D6" s="8">
-        <v>70</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10">
         <v>617</v>
@@ -731,65 +712,65 @@
         <v>800</v>
       </c>
       <c r="D7" s="10">
+        <v>65</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>617</v>
+      </c>
+      <c r="C8" s="10">
+        <v>800</v>
+      </c>
+      <c r="D8" s="10">
         <v>70</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4">
-        <v>617</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>617</v>
+      </c>
+      <c r="C9" s="4">
         <v>800</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
-        <v>617</v>
-      </c>
-      <c r="C9" s="6">
-        <v>800</v>
-      </c>
-      <c r="D9" s="6">
-        <v>80</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -812,256 +793,440 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
-        <v>617</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="12">
+        <v>617</v>
+      </c>
+      <c r="C11" s="12">
         <v>900</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14">
-        <v>617</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="12">
+        <v>617</v>
+      </c>
+      <c r="C12" s="12">
         <v>900</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>31</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16">
-        <v>617</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="12">
+        <v>617</v>
+      </c>
+      <c r="C13" s="12">
         <v>900</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>36</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6">
+        <v>617</v>
+      </c>
+      <c r="C14" s="6">
+        <v>900</v>
+      </c>
+      <c r="D14" s="6">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10">
+        <v>617</v>
+      </c>
+      <c r="C15" s="10">
+        <v>900</v>
+      </c>
+      <c r="D15" s="10">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="10">
+        <v>617</v>
+      </c>
+      <c r="C16" s="10">
+        <v>900</v>
+      </c>
+      <c r="D16" s="10">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10">
+        <v>617</v>
+      </c>
+      <c r="C17" s="10">
+        <v>900</v>
+      </c>
+      <c r="D17" s="10">
+        <v>36</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>617</v>
+      </c>
+      <c r="C18" s="4">
+        <v>900</v>
+      </c>
+      <c r="D18" s="4">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12">
-        <v>617</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B19" s="12">
+        <v>617</v>
+      </c>
+      <c r="C19" s="12">
         <v>1000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D19" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="E19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14">
-        <v>617</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B20" s="12">
+        <v>617</v>
+      </c>
+      <c r="C20" s="12">
         <v>1000</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D20" s="12">
         <v>12</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="E20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="14">
-        <v>617</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B21" s="12">
+        <v>617</v>
+      </c>
+      <c r="C21" s="12">
         <v>1000</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D21" s="12">
         <v>13</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="E21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16">
-        <v>617</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B22" s="12">
+        <v>617</v>
+      </c>
+      <c r="C22" s="12">
         <v>1000</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D22" s="12">
         <v>16</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="E22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6">
+        <v>617</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="6">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10">
+        <v>617</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>13</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
+        <v>617</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="18">
-        <v>617</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B26" s="10">
+        <v>617</v>
+      </c>
+      <c r="C26" s="10">
         <v>800</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="18">
-        <v>617</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B27" s="10">
+        <v>617</v>
+      </c>
+      <c r="C27" s="10">
         <v>800</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18">
-        <v>617</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B28" s="10">
+        <v>617</v>
+      </c>
+      <c r="C28" s="10">
         <v>800</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D28" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="18">
-        <v>617</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B29" s="10">
+        <v>617</v>
+      </c>
+      <c r="C29" s="10">
         <v>800</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D29" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>2</v>
       </c>
     </row>

--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E3FB6-4B63-42CC-90BC-CFDCADA5F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF76222-6588-4076-B6EA-C765D4DE463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inl_1" sheetId="3" r:id="rId1"/>
-    <sheet name="inl_2" sheetId="14" r:id="rId2"/>
-    <sheet name="kaeri_aged" sheetId="10" r:id="rId3"/>
-    <sheet name="kaeri_base" sheetId="11" r:id="rId4"/>
-    <sheet name="kaeri_naged" sheetId="12" r:id="rId5"/>
+    <sheet name="params" sheetId="15" r:id="rId1"/>
+    <sheet name="inl_1" sheetId="3" r:id="rId2"/>
+    <sheet name="inl_2" sheetId="14" r:id="rId3"/>
+    <sheet name="kaeri_aged" sheetId="10" r:id="rId4"/>
+    <sheet name="kaeri_base" sheetId="11" r:id="rId5"/>
+    <sheet name="kaeri_naged" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="152">
   <si>
     <t>temp</t>
   </si>
@@ -452,6 +453,39 @@
   </si>
   <si>
     <t>large tertiary</t>
+  </si>
+  <si>
+    <t>evpcd</t>
+  </si>
+  <si>
+    <t>evp_s0</t>
+  </si>
+  <si>
+    <t>evp_R</t>
+  </si>
+  <si>
+    <t>evp_d</t>
+  </si>
+  <si>
+    <t>evp_n</t>
+  </si>
+  <si>
+    <t>evp_eta</t>
+  </si>
+  <si>
+    <t>cd_A</t>
+  </si>
+  <si>
+    <t>cd_xi</t>
+  </si>
+  <si>
+    <t>cd_phi</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>params</t>
   </si>
 </sst>
 </file>
@@ -566,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +669,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,15 +785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>59991</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30224</xdr:rowOff>
+      <xdr:colOff>30683</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>274302</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>184122</xdr:rowOff>
+      <xdr:colOff>244994</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -776,7 +816,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8881606" y="3268724"/>
+          <a:off x="8852298" y="3444570"/>
           <a:ext cx="2038715" cy="1487398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,15 +1196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>63572</xdr:rowOff>
+      <xdr:rowOff>82622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1187,7 +1227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="5543550"/>
+          <a:off x="8896350" y="5562600"/>
           <a:ext cx="2628900" cy="1949522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1506,11 +1546,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1902F50F-2185-47BD-872D-696190D94151}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="29">
+        <v>800</v>
+      </c>
+      <c r="C3" s="29">
+        <v>48.960209999999996</v>
+      </c>
+      <c r="D3" s="29">
+        <v>17.822620000000001</v>
+      </c>
+      <c r="E3" s="29">
+        <v>9.5687479999999994</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2.0310410000000001</v>
+      </c>
+      <c r="G3" s="29">
+        <v>56309.59</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1995.8009999999999</v>
+      </c>
+      <c r="I3" s="29">
+        <v>5.4386010000000002</v>
+      </c>
+      <c r="J3" s="29">
+        <v>6.7901199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>900</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.56735100000000005</v>
+      </c>
+      <c r="D4" s="29">
+        <v>24.645340000000001</v>
+      </c>
+      <c r="E4" s="29">
+        <v>34.15175</v>
+      </c>
+      <c r="F4" s="29">
+        <v>2.103748</v>
+      </c>
+      <c r="G4" s="29">
+        <v>31803.17</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2679.5309999999999</v>
+      </c>
+      <c r="I4" s="29">
+        <v>4.1550710000000004</v>
+      </c>
+      <c r="J4" s="29">
+        <v>9.2708449999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="29">
+        <v>7.805677766819759</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3.6500284236445503E-2</v>
+      </c>
+      <c r="E5" s="29">
+        <v>6.9933056799717779</v>
+      </c>
+      <c r="F5" s="29">
+        <v>2.1865293117519431</v>
+      </c>
+      <c r="G5" s="29">
+        <v>20539.05912569529</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2388.9208062275929</v>
+      </c>
+      <c r="I5" s="29">
+        <v>3.5917325254613259</v>
+      </c>
+      <c r="J5" s="29">
+        <v>6.7517952580115246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72057042-979B-4A98-BA2E-14DCB6564B56}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,12 +2511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578FDA3-F26E-4E35-80A8-9B064AEAD5AE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,12 +3490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539DB0F7-233D-4937-914F-C567FE238855}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,12 +3871,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69278EA8-6F9F-49D4-BBEE-C6F7D2601391}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,12 +5373,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7E390-41A9-48B3-83EA-F302D713C1F5}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040673D4-0523-4D4F-ACBF-EF6D981475F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3EF4C-78C5-4F1D-AEE9-0827A07E8B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inl_1" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="269">
   <si>
     <t>temp</t>
   </si>
@@ -260,36 +260,6 @@
     <t>no damage</t>
   </si>
   <si>
-    <t>AirBase_900_20_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_22_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_22_b.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_25_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_25_b.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_28_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_30_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_35_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_40_a.csv</t>
-  </si>
-  <si>
-    <t>AirBase_900_50_a.csv</t>
-  </si>
-  <si>
     <t>trilinear</t>
   </si>
   <si>
@@ -855,6 +825,18 @@
   </si>
   <si>
     <t>F9</t>
+  </si>
+  <si>
+    <t>AirBase_900_20_a</t>
+  </si>
+  <si>
+    <t>AirBase_900_22_a</t>
+  </si>
+  <si>
+    <t>AirBase_900_22_b</t>
+  </si>
+  <si>
+    <t>AirBase_900_25_b</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>51</v>
@@ -2010,7 +1992,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
@@ -2042,7 +2024,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>53</v>
@@ -2077,7 +2059,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>54</v>
@@ -2109,7 +2091,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>55</v>
@@ -2141,7 +2123,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>56</v>
@@ -2176,7 +2158,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>57</v>
@@ -2211,7 +2193,7 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>58</v>
@@ -2245,7 +2227,7 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>59</v>
@@ -2279,7 +2261,7 @@
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>60</v>
@@ -2315,7 +2297,7 @@
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>61</v>
@@ -2349,7 +2331,7 @@
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>62</v>
@@ -2385,7 +2367,7 @@
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>63</v>
@@ -2419,7 +2401,7 @@
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>64</v>
@@ -2455,7 +2437,7 @@
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>65</v>
@@ -2489,7 +2471,7 @@
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>66</v>
@@ -2525,7 +2507,7 @@
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>67</v>
@@ -2559,7 +2541,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>68</v>
@@ -2594,7 +2576,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>69</v>
@@ -2626,7 +2608,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>70</v>
@@ -2661,7 +2643,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>71</v>
@@ -2696,7 +2678,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>72</v>
@@ -2728,7 +2710,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>73</v>
@@ -2763,7 +2745,7 @@
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>74</v>
@@ -2806,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578FDA3-F26E-4E35-80A8-9B064AEAD5AE}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -2865,7 +2847,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -2897,7 +2879,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -2932,7 +2914,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -2967,7 +2949,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -2999,7 +2981,7 @@
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -3036,7 +3018,7 @@
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -3073,7 +3055,7 @@
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>26</v>
@@ -3108,7 +3090,7 @@
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>27</v>
@@ -3145,7 +3127,7 @@
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>28</v>
@@ -3180,7 +3162,7 @@
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -3215,7 +3197,7 @@
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>30</v>
@@ -3252,7 +3234,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
@@ -3284,7 +3266,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -3316,7 +3298,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
@@ -3348,7 +3330,7 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -3383,7 +3365,7 @@
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
@@ -3418,7 +3400,7 @@
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>36</v>
@@ -3453,7 +3435,7 @@
     </row>
     <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
@@ -3488,7 +3470,7 @@
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>38</v>
@@ -3523,7 +3505,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
@@ -3558,7 +3540,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>40</v>
@@ -3590,7 +3572,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>41</v>
@@ -3622,7 +3604,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>42</v>
@@ -3657,7 +3639,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>43</v>
@@ -3689,7 +3671,7 @@
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -3728,7 +3710,7 @@
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>45</v>
@@ -3763,7 +3745,7 @@
     </row>
     <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3798,7 +3780,7 @@
     </row>
     <row r="29" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>47</v>
@@ -3833,7 +3815,7 @@
     </row>
     <row r="30" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>48</v>
@@ -3876,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539DB0F7-233D-4937-914F-C567FE238855}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -3937,10 +3919,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -3949,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3">
         <v>900</v>
@@ -3964,15 +3946,15 @@
         <v>8.47522E-2</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -3981,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
         <v>900</v>
@@ -4001,10 +3983,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -4013,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3">
         <v>900</v>
@@ -4033,10 +4015,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -4045,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
         <v>900</v>
@@ -4066,15 +4048,15 @@
         <v>11</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -4083,7 +4065,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
         <v>900</v>
@@ -4101,15 +4083,15 @@
         <v>11</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -4118,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
         <v>900</v>
@@ -4141,10 +4123,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -4153,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3">
         <v>900</v>
@@ -4176,10 +4158,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -4188,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3">
         <v>900</v>
@@ -4211,10 +4193,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -4223,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
@@ -4246,10 +4228,10 @@
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>3</v>
@@ -4258,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>900</v>
@@ -4292,7 +4274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69278EA8-6F9F-49D4-BBEE-C6F7D2601391}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -4312,7 +4294,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4351,16 +4333,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>49</v>
@@ -4378,21 +4360,21 @@
         <v>0.48863000000000001</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>49</v>
@@ -4418,16 +4400,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>49</v>
@@ -4453,16 +4435,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>49</v>
@@ -4488,16 +4470,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>49</v>
@@ -4523,16 +4505,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
@@ -4558,16 +4540,16 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
@@ -4595,16 +4577,16 @@
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>49</v>
@@ -4624,22 +4606,22 @@
       <c r="J9" s="17"/>
       <c r="K9" s="5"/>
       <c r="L9" s="20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>49</v>
@@ -4659,22 +4641,22 @@
       <c r="J10" s="17"/>
       <c r="K10" s="5"/>
       <c r="L10" s="20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>49</v>
@@ -4702,16 +4684,16 @@
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>49</v>
@@ -4739,16 +4721,16 @@
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>49</v>
@@ -4776,16 +4758,16 @@
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>49</v>
@@ -4813,16 +4795,16 @@
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>49</v>
@@ -4850,16 +4832,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>49</v>
@@ -4885,16 +4867,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>49</v>
@@ -4920,16 +4902,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>49</v>
@@ -4955,16 +4937,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>49</v>
@@ -4987,16 +4969,16 @@
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
@@ -5024,16 +5006,16 @@
     </row>
     <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>49</v>
@@ -5053,22 +5035,22 @@
       <c r="J21" s="17"/>
       <c r="K21" s="5"/>
       <c r="L21" s="20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>49</v>
@@ -5096,16 +5078,16 @@
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>49</v>
@@ -5133,16 +5115,16 @@
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>49</v>
@@ -5170,16 +5152,16 @@
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>49</v>
@@ -5207,16 +5189,16 @@
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>49</v>
@@ -5242,16 +5224,16 @@
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>49</v>
@@ -5279,16 +5261,16 @@
     </row>
     <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>49</v>
@@ -5316,16 +5298,16 @@
     </row>
     <row r="29" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>49</v>
@@ -5353,16 +5335,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>49</v>
@@ -5388,16 +5370,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>49</v>
@@ -5423,16 +5405,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>49</v>
@@ -5458,16 +5440,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>49</v>
@@ -5493,16 +5475,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>49</v>
@@ -5528,16 +5510,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>49</v>
@@ -5560,16 +5542,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>49</v>
@@ -5595,16 +5577,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>49</v>
@@ -5630,16 +5612,16 @@
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -5667,16 +5649,16 @@
     </row>
     <row r="39" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>49</v>
@@ -5704,16 +5686,16 @@
     </row>
     <row r="40" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>49</v>
@@ -5735,22 +5717,22 @@
         <v>11</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>49</v>
@@ -5778,16 +5760,16 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>49</v>
@@ -5815,16 +5797,16 @@
     </row>
     <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>49</v>
@@ -5844,22 +5826,22 @@
       <c r="J43" s="17"/>
       <c r="K43" s="5"/>
       <c r="L43" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>49</v>
@@ -5879,22 +5861,22 @@
       <c r="J44" s="17"/>
       <c r="K44" s="5"/>
       <c r="L44" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>49</v>
@@ -5931,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7E390-41A9-48B3-83EA-F302D713C1F5}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -5990,10 +5972,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -6017,15 +5999,15 @@
         <v>0.41302499999999998</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -6049,15 +6031,15 @@
         <v>0.384019</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -6089,10 +6071,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -6124,10 +6106,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -6156,10 +6138,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -6216,7 +6198,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -6234,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>9</v>
@@ -6249,13 +6231,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -6272,13 +6254,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -6295,13 +6277,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -6318,13 +6300,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -6341,13 +6323,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -6364,13 +6346,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -6387,13 +6369,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -6410,13 +6392,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -6433,13 +6415,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>

--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3EF4C-78C5-4F1D-AEE9-0827A07E8B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37E612E-5759-4135-A3B1-6F95B9947D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inl_1" sheetId="3" r:id="rId1"/>
@@ -2788,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578FDA3-F26E-4E35-80A8-9B064AEAD5AE}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3858,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539DB0F7-233D-4937-914F-C567FE238855}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69278EA8-6F9F-49D4-BBEE-C6F7D2601391}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5913,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7E390-41A9-48B3-83EA-F302D713C1F5}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optimiser/input/__index__.xlsx
+++ b/optimiser/input/__index__.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37E612E-5759-4135-A3B1-6F95B9947D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FEBC61-1C44-487D-B64C-5DBBFC95A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="28575" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inl_1" sheetId="3" r:id="rId1"/>
-    <sheet name="inl_2" sheetId="14" r:id="rId2"/>
-    <sheet name="kaeri_1" sheetId="10" r:id="rId3"/>
-    <sheet name="kaeri_2" sheetId="11" r:id="rId4"/>
-    <sheet name="kaeri_3" sheetId="12" r:id="rId5"/>
-    <sheet name="tensile" sheetId="15" r:id="rId6"/>
+    <sheet name="notes" sheetId="16" r:id="rId1"/>
+    <sheet name="inl_1" sheetId="3" r:id="rId2"/>
+    <sheet name="inl_2" sheetId="14" r:id="rId3"/>
+    <sheet name="kaeri_1" sheetId="10" r:id="rId4"/>
+    <sheet name="kaeri_2" sheetId="11" r:id="rId5"/>
+    <sheet name="kaeri_3" sheetId="12" r:id="rId6"/>
+    <sheet name="tensile" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="273">
   <si>
     <t>temp</t>
   </si>
@@ -837,6 +838,18 @@
   </si>
   <si>
     <t>AirBase_900_25_b</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>youngs</t>
+  </si>
+  <si>
+    <t>MPa</t>
   </si>
 </sst>
 </file>
@@ -1897,6 +1910,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C7426-797A-4E08-8D89-586E3BDD972F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72057042-979B-4A98-BA2E-14DCB6564B56}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -2784,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578FDA3-F26E-4E35-80A8-9B064AEAD5AE}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -3854,7 +3904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539DB0F7-233D-4937-914F-C567FE238855}">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -4270,11 +4320,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69278EA8-6F9F-49D4-BBEE-C6F7D2601391}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -5909,7 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7E390-41A9-48B3-83EA-F302D713C1F5}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6176,7 +6226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40DCC4-4342-4D5A-B0F8-BA9AA3EEED9C}">
   <dimension ref="A1:K10"/>
   <sheetViews>
